--- a/meta/en/2-a-2.xlsx
+++ b/meta/en/2-a-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -99,9 +98,6 @@
   </si>
   <si>
     <t>2.a. Increase investment, including through enhanced international cooperation, in rural infrastructure, agricultural research and extension services, technology development and plant and livestock gene banks in order to enhance agricultural productive capacity in developing countries, in particular least developed countries.</t>
-  </si>
-  <si>
-    <t>2.а.2: Total official flows (official development assistance plus other official flows) to the agriculture sector.</t>
   </si>
   <si>
     <t>National Statistical Committee of the Kyrgyz Republic (Finance Statistics Division).</t>
@@ -156,17 +152,28 @@
 Links: http://www.oecd.org/dac/stats/methodology.htm
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
+  <si>
+    <t xml:space="preserve">2.а.2: Total official flows (official development assistance plus other official flows) to the agriculture sector </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,25 +240,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -563,7 +574,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,8 +610,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -622,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,7 +709,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -712,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
